--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-3 (9 Agustus 2021 - 15 Agustus 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-3 (9 Agustus 2021 - 15 Agustus 2021).xlsx
@@ -1144,7 +1144,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G16" s="3" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="H16" s="8" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1267,7 +1271,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G19" s="3" t="inlineStr"/>
+      <c r="G19" s="7" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="H19" s="8" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1308,7 +1316,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G20" s="3" t="inlineStr"/>
+      <c r="G20" s="7" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="H20" s="8" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1592,7 +1604,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D27" s="9" t="inlineStr"/>
+      <c r="D27" s="8" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E27" s="7" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-3 (9 Agustus 2021 - 15 Agustus 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-3 (9 Agustus 2021 - 15 Agustus 2021).xlsx
@@ -1230,7 +1230,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G18" s="3" t="inlineStr"/>
+      <c r="G18" s="7" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="H18" s="8" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1412,7 +1416,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="I22" s="3" t="inlineStr"/>
+      <c r="I22" s="7" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="23" ht="15.6" customHeight="1" s="1">
       <c r="A23" s="3" t="n">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-3 (9 Agustus 2021 - 15 Agustus 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-3 (9 Agustus 2021 - 15 Agustus 2021).xlsx
@@ -1410,7 +1410,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G22" s="3" t="inlineStr"/>
+      <c r="G22" s="7" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="H22" s="8" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-3 (9 Agustus 2021 - 15 Agustus 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-3 (9 Agustus 2021 - 15 Agustus 2021).xlsx
@@ -1142,7 +1142,7 @@
       </c>
       <c r="F14" s="18" t="inlineStr">
         <is>
-          <t>KRISTEN</t>
+          <t>NON-MUS</t>
         </is>
       </c>
       <c r="G14" s="16" t="inlineStr">
@@ -1674,7 +1674,7 @@
       </c>
       <c r="F26" s="18" t="inlineStr">
         <is>
-          <t>KRISTEN</t>
+          <t>NON-MUS</t>
         </is>
       </c>
       <c r="G26" s="16" t="inlineStr">
@@ -1764,7 +1764,7 @@
       </c>
       <c r="F28" s="18" t="inlineStr">
         <is>
-          <t>KRISTEN</t>
+          <t>NON-MUS</t>
         </is>
       </c>
       <c r="G28" s="16" t="inlineStr">
@@ -2133,7 +2133,7 @@
       </c>
       <c r="F37" s="18" t="inlineStr">
         <is>
-          <t>KRISTEN</t>
+          <t>NON-MUS</t>
         </is>
       </c>
       <c r="G37" s="12" t="inlineStr"/>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-3 (9 Agustus 2021 - 15 Agustus 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-3 (9 Agustus 2021 - 15 Agustus 2021).xlsx
@@ -1064,7 +1064,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="F12" s="18" t="inlineStr"/>
+      <c r="F12" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G12" s="16" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-3 (9 Agustus 2021 - 15 Agustus 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-3 (9 Agustus 2021 - 15 Agustus 2021).xlsx
@@ -1839,7 +1839,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G30" s="12" t="inlineStr"/>
+      <c r="G30" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="H30" s="17" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-3 (9 Agustus 2021 - 15 Agustus 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-3 (9 Agustus 2021 - 15 Agustus 2021).xlsx
@@ -553,7 +553,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="A1:I37"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-3 (9 Agustus 2021 - 15 Agustus 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-3 (9 Agustus 2021 - 15 Agustus 2021).xlsx
@@ -553,7 +553,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="F10" sqref="A1:I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
